--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS032-001-SetJenisTransaksi.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS032-001-SetJenisTransaksi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090685D6-E244-4C37-9E37-7342D4E8F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B605E8-9F96-4AC0-804B-658CAE44436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>RUN</t>
   </si>
@@ -68,42 +68,39 @@
   </si>
   <si>
     <t>Hapus Data Dapat dilakukan dengan baik</t>
+  </si>
+  <si>
+    <t>bni1234</t>
+  </si>
+  <si>
+    <t>Kepesertaan</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Setup Jenis Transaksi</t>
+  </si>
+  <si>
+    <t>NAMA_JENIS_TRANSAKSI</t>
+  </si>
+  <si>
+    <t>GROUP_TRANSAKSI</t>
+  </si>
+  <si>
+    <t>KONTRIBUTOR</t>
+  </si>
+  <si>
+    <t>Penyelia Settlement</t>
+  </si>
+  <si>
+    <t>KODE_JENIS_TRANSAKSI</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement;
-Kode Transaksi : 090</t>
-  </si>
-  <si>
-    <t>bni1234</t>
-  </si>
-  <si>
-    <t>Kepesertaan</t>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Setup Jenis Transaksi</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>NAMA_JENIS_TRANSAKSI</t>
-  </si>
-  <si>
-    <t>GROUP_TRANSAKSI</t>
-  </si>
-  <si>
-    <t>KONTRIBUTOR</t>
-  </si>
-  <si>
-    <t>Penyelia Settlement</t>
-  </si>
-  <si>
-    <t>KODE_JENIS_TRANSAKSI</t>
+Kode Transaksi : 998</t>
   </si>
 </sst>
 </file>
@@ -455,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -515,16 +512,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="51">
@@ -544,28 +541,28 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3">
         <v>30711</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
+      <c r="M2" s="7">
+        <v>998</v>
       </c>
     </row>
   </sheetData>
